--- a/project/SetOperator/Set.xlsx
+++ b/project/SetOperator/Set.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\SetOperator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\kingdom\project\python\project\SetOperator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10668"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Set" sheetId="1" r:id="rId2"/>
+    <sheet name="Set" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>1,a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,10 @@
   </si>
   <si>
     <t>1-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据范围：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,11 +536,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="70" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -591,123 +725,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="70" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>